--- a/StructureDefinition-ext-R5-NutritionProduct.xlsx
+++ b/StructureDefinition-ext-R5-NutritionProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -500,7 +500,8 @@
     <t>The organisation (manufacturer, representative or legal authorization holder) that is responsible for the device.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.manufacturer` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `NutritionProduct.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `NutritionProduct.manufacturer` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer.id</t>
@@ -635,7 +636,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:concept.id</t>
@@ -668,7 +669,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-NutritionProduct.xlsx
+++ b/StructureDefinition-ext-R5-NutritionProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,8 +635,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:concept.id</t>
@@ -669,8 +669,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:reference.id</t>

--- a/StructureDefinition-ext-R5-NutritionProduct.xlsx
+++ b/StructureDefinition-ext-R5-NutritionProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Codes identifying the lifecycle stage of a product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-nutritionproduct-status-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutritionproduct-status-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:category</t>
@@ -477,15 +477,6 @@
   </si>
   <si>
     <t>Extension.extension:category.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying classes of nutrition products.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-nutrition-product-category-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer</t>
@@ -516,7 +507,7 @@
     <t>Extension.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -635,8 +626,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:concept.id</t>
@@ -654,7 +644,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-nutrition-product-nutrient-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutrition-product-nutrient-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:reference</t>
@@ -669,8 +659,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:reference.id</t>
@@ -685,7 +674,7 @@
     <t>Extension.extension:nutrient.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
 </t>
   </si>
   <si>
@@ -828,7 +817,7 @@
     <t>Extension.extension:ingredient.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic)
 </t>
   </si>
   <si>
@@ -920,7 +909,7 @@
     <t>Extension.extension:knownAllergen.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-allergen-class-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-allergen-class-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:knownAllergen.extension:reference</t>
@@ -996,12 +985,6 @@
     <t>Extension.extension:characteristic.extension:type.value[x]</t>
   </si>
   <si>
-    <t>Codes that identify properties that can be measured.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-measurement-property-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:characteristic.extension:value</t>
   </si>
   <si>
@@ -1034,7 +1017,7 @@
   </si>
   <si>
     <t>CodeableConcept
-stringQuantity {SimpleQuantity|4.0.1}base64BinaryAttachmentboolean</t>
+stringQuantity {SimpleQuantity}base64BinaryAttachmentboolean</t>
   </si>
   <si>
     <t>Extension.extension:characteristic.url</t>
@@ -1092,7 +1075,7 @@
     <t>Extension.extension:instance.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1656,8 +1639,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.66796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3623,13 +3606,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3667,13 +3650,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3698,14 +3681,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3774,7 +3757,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3877,7 +3860,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3982,7 +3965,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -4025,7 +4008,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4087,7 +4070,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>121</v>
@@ -4113,13 +4096,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4190,13 +4173,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4221,16 +4204,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4299,7 +4282,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4402,7 +4385,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4505,13 +4488,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4536,14 +4519,14 @@
         <v>93</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4612,10 +4595,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4715,10 +4698,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4818,13 +4801,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4849,10 +4832,10 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4923,10 +4906,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5026,10 +5009,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5131,10 +5114,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5174,7 +5157,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -5236,10 +5219,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5265,13 +5248,13 @@
         <v>87</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5279,7 +5262,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>77</v>
@@ -5341,13 +5324,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -5372,14 +5355,14 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5448,10 +5431,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5551,10 +5534,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5656,10 +5639,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5699,7 +5682,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5761,10 +5744,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5790,10 +5773,10 @@
         <v>122</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5820,11 +5803,11 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5862,13 +5845,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -5893,14 +5876,14 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5969,10 +5952,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6072,10 +6055,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6177,10 +6160,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6220,7 +6203,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>77</v>
@@ -6282,10 +6265,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6308,13 +6291,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6385,10 +6368,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6428,7 +6411,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6490,10 +6473,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6516,13 +6499,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6593,13 +6576,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6624,14 +6607,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6700,10 +6683,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6803,10 +6786,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6908,10 +6891,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6951,7 +6934,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7013,10 +6996,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7039,13 +7022,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7116,7 +7099,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7159,7 +7142,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7221,7 +7204,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>121</v>
@@ -7247,13 +7230,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7324,13 +7307,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7355,14 +7338,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7431,7 +7414,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7534,7 +7517,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7637,13 +7620,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7668,14 +7651,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7744,10 +7727,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7847,10 +7830,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7950,13 +7933,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -7981,10 +7964,10 @@
         <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8055,10 +8038,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8158,10 +8141,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8263,10 +8246,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8306,7 +8289,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8368,10 +8351,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8397,13 +8380,13 @@
         <v>87</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8411,7 +8394,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>77</v>
@@ -8473,13 +8456,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8504,14 +8487,14 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8580,10 +8563,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8683,10 +8666,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8788,10 +8771,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8831,7 +8814,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8893,10 +8876,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8922,10 +8905,10 @@
         <v>122</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8996,13 +8979,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9027,14 +9010,14 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9103,10 +9086,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9206,10 +9189,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9311,10 +9294,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9354,7 +9337,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9416,10 +9399,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9442,13 +9425,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9519,10 +9502,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9562,7 +9545,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9624,10 +9607,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9650,13 +9633,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9727,13 +9710,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9758,14 +9741,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9834,10 +9817,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9937,10 +9920,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10042,10 +10025,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10085,7 +10068,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10147,10 +10130,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10173,13 +10156,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10250,7 +10233,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -10293,7 +10276,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10355,7 +10338,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>121</v>
@@ -10381,13 +10364,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10458,13 +10441,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10489,14 +10472,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10565,7 +10548,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10668,7 +10651,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10771,13 +10754,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10802,10 +10785,10 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10876,10 +10859,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10979,10 +10962,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11084,10 +11067,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11127,7 +11110,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11189,10 +11172,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11218,13 +11201,13 @@
         <v>87</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11232,7 +11215,7 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>77</v>
@@ -11294,13 +11277,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11325,14 +11308,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11401,10 +11384,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11504,10 +11487,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11609,10 +11592,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11652,7 +11635,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11714,10 +11697,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11743,10 +11726,10 @@
         <v>122</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11773,11 +11756,11 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -11815,13 +11798,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11846,14 +11829,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11922,10 +11905,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12025,10 +12008,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12130,10 +12113,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12173,7 +12156,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12235,10 +12218,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12261,13 +12244,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12338,7 +12321,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12381,7 +12364,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12443,7 +12426,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>121</v>
@@ -12469,13 +12452,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12546,13 +12529,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12577,14 +12560,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12653,7 +12636,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -12756,7 +12739,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -12767,7 +12750,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -12859,13 +12842,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12890,14 +12873,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12966,10 +12949,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13069,10 +13052,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13174,10 +13157,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13217,7 +13200,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13279,10 +13262,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13308,10 +13291,10 @@
         <v>122</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13338,13 +13321,13 @@
         <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>77</v>
@@ -13382,13 +13365,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13413,16 +13396,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13491,10 +13474,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13594,10 +13577,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13699,10 +13682,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13742,7 +13725,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13804,10 +13787,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13830,16 +13813,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -13909,7 +13892,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13952,7 +13935,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14014,7 +13997,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>121</v>
@@ -14040,13 +14023,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14117,13 +14100,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14148,14 +14131,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14224,7 +14207,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>105</v>
@@ -14327,7 +14310,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>107</v>
@@ -14430,13 +14413,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14461,14 +14444,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14537,10 +14520,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14640,10 +14623,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14745,10 +14728,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14788,7 +14771,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14850,10 +14833,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14876,13 +14859,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14953,13 +14936,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -14984,14 +14967,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15060,10 +15043,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15163,10 +15146,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15268,10 +15251,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15311,7 +15294,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15373,10 +15356,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15399,13 +15382,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15476,13 +15459,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15507,14 +15490,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15583,10 +15566,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15686,10 +15669,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15791,10 +15774,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15834,7 +15817,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15896,10 +15879,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15925,10 +15908,10 @@
         <v>87</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -15999,13 +15982,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16030,14 +16013,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16106,10 +16089,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16209,10 +16192,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16314,10 +16297,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16357,7 +16340,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16419,10 +16402,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16448,10 +16431,10 @@
         <v>87</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16522,13 +16505,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16553,14 +16536,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16629,10 +16612,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16732,10 +16715,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16837,10 +16820,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16880,7 +16863,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -16942,10 +16925,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -16968,13 +16951,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17045,13 +17028,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17076,14 +17059,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17152,10 +17135,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17255,10 +17238,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17360,10 +17343,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17403,7 +17386,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17465,10 +17448,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17491,13 +17474,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17568,13 +17551,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17599,16 +17582,16 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -17677,10 +17660,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17780,10 +17763,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -17885,10 +17868,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -17928,7 +17911,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -17990,10 +17973,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18016,16 +17999,16 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18095,7 +18078,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>113</v>
@@ -18138,7 +18121,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18200,7 +18183,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>121</v>
@@ -18226,13 +18209,13 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -18303,13 +18286,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -18334,14 +18317,14 @@
         <v>93</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>77</v>
@@ -18410,7 +18393,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>105</v>
@@ -18513,7 +18496,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>107</v>
@@ -18618,7 +18601,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>113</v>
@@ -18661,7 +18644,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -18723,7 +18706,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>121</v>
@@ -18749,13 +18732,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -18957,13 +18940,13 @@
         <v>77</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>

--- a/StructureDefinition-ext-R5-NutritionProduct.xlsx
+++ b/StructureDefinition-ext-R5-NutritionProduct.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Codes identifying the lifecycle stage of a product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutritionproduct-status-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutritionproduct-status-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:category</t>
@@ -507,7 +507,7 @@
     <t>Extension.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -547,8 +547,7 @@
     <t>The (relevant) nutrients in the product.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.nutrient.item` is part of an existing definition because parent element `NutritionProduct.nutrient` requires a cross-version extension.
-Element `NutritionProduct.nutrient.item` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.nutrient.item` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.id</t>
@@ -626,7 +625,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:concept.id</t>
@@ -641,12 +640,6 @@
     <t>Extension.extension:nutrient.extension:item.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-nutrition-product-nutrient-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:nutrient.extension:item.extension:reference</t>
   </si>
   <si>
@@ -659,7 +652,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:item.extension:reference.id</t>
@@ -674,7 +667,7 @@
     <t>Extension.extension:nutrient.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
 </t>
   </si>
   <si>
@@ -706,8 +699,7 @@
     <t>The amount of nutrient expressed in one or more units: X per pack / per serving / per dose.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.nutrient.amount` is part of an existing definition because parent element `NutritionProduct.nutrient` requires a cross-version extension.
-Element `NutritionProduct.nutrient.amount` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.nutrient.amount` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:nutrient.extension:amount.id</t>
@@ -762,8 +754,7 @@
     <t>The ingredient contained in the product.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.ingredient.item` is part of an existing definition because parent element `NutritionProduct.ingredient` requires a cross-version extension.
-Element `NutritionProduct.ingredient.item` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.ingredient.item` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:ingredient.extension:item.id</t>
@@ -817,7 +808,7 @@
     <t>Extension.extension:ingredient.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -836,8 +827,7 @@
     <t>The amount of ingredient that is in the product.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.ingredient.amount` is part of an existing definition because parent element `NutritionProduct.ingredient` requires a cross-version extension.
-Element `NutritionProduct.ingredient.amount` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.ingredient.amount` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:ingredient.extension:amount.id</t>
@@ -909,9 +899,6 @@
     <t>Extension.extension:knownAllergen.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-allergen-class-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:knownAllergen.extension:reference</t>
   </si>
   <si>
@@ -969,8 +956,7 @@
     <t>A code specifying which characteristic of the product is being described (for example, colour, shape).</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.characteristic.type` is part of an existing definition because parent element `NutritionProduct.characteristic` requires a cross-version extension.
-Element `NutritionProduct.characteristic.type` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.characteristic.type` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:characteristic.extension:type.id</t>
@@ -1000,8 +986,7 @@
     <t>The description should be provided as a CodeableConcept, SimpleQuantity or an image.  The description can be a string only when these others are not available.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.characteristic.value[x]` is part of an existing definition because parent element `NutritionProduct.characteristic` requires a cross-version extension.
-Element `NutritionProduct.characteristic.value[x]` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.characteristic.value[x]` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:characteristic.extension:value.id</t>
@@ -1017,7 +1002,7 @@
   </si>
   <si>
     <t>CodeableConcept
-stringQuantity {SimpleQuantity}base64BinaryAttachmentboolean</t>
+stringQuantity {SimpleQuantity|4.0.1}base64BinaryAttachmentboolean</t>
   </si>
   <si>
     <t>Extension.extension:characteristic.url</t>
@@ -1059,8 +1044,7 @@
     <t>The amount of items or instances that the resource considers, for instance when referring to 2 identical units together.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.quantity` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.quantity` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.quantity` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:quantity.id</t>
@@ -1075,7 +1059,7 @@
     <t>Extension.extension:instance.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1091,8 +1075,7 @@
     <t>The identifier for the physical instance, typically a serial number or manufacturer number.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.identifier` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.identifier` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.identifier` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:identifier.id</t>
@@ -1123,8 +1106,7 @@
     <t>The name for the specific product.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.name` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.name` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.name` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:name.id</t>
@@ -1151,8 +1133,7 @@
     <t>The identification of the batch or lot of the product.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.lotNumber` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.lotNumber` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.lotNumber` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:lotNumber.id</t>
@@ -1179,8 +1160,7 @@
     <t>The time after which the product is no longer expected to be in proper condition, or its use is not advised or not allowed.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.expiry` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.expiry` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.expiry` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:expiry.id</t>
@@ -1208,8 +1188,7 @@
     <t>The date until which the product is expected to be good for consumption</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.useBy` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.useBy` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.useBy` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:useBy.id</t>
@@ -1239,8 +1218,7 @@
     <t>Necessary to support mandatory requirements for traceability from donor/source to recipient and vice versa, while also satisfying donor anonymity requirements. The element is defined consistently across BiologicallyDerivedProduct, NutritionProduct, and Device.  The identifier references an event that links to a single biological entity such as a blood donor, or to multiple biological entities (e.g. when the product is an embryo or a pooled platelet product).  A single biologicalSourceEvent identifier may appear on multiple products of many types derived from a single donation event or source extraction.  As an example, a single donation event may provide 2 kidneys and a liver for organ transplantation, 2 corneas for eye surgery, heart valves and arterial tissue for cardiovascular surgery, multiple skin grafts, tendons, multiple shaped bone grafts and a large number of bone putty/paste products; and each of them may be assigned to the same biological source event identifier.</t>
   </si>
   <si>
-    <t>Element `NutritionProduct.instance.biologicalSourceEvent` is part of an existing definition because parent element `NutritionProduct.instance` requires a cross-version extension.
-Element `NutritionProduct.instance.biologicalSourceEvent` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
+    <t>Element `NutritionProduct.instance.biologicalSourceEvent` is not mapped to FHIR R4, since FHIR R5 `NutritionProduct` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:instance.extension:biologicalSourceEvent.id</t>
@@ -1640,7 +1618,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="40.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5803,11 +5781,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -5845,13 +5825,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
@@ -5876,14 +5856,14 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5952,7 +5932,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>180</v>
@@ -6055,7 +6035,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>182</v>
@@ -6160,7 +6140,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>184</v>
@@ -6203,7 +6183,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>77</v>
@@ -6265,7 +6245,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>187</v>
@@ -6291,13 +6271,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6368,10 +6348,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6473,10 +6453,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6499,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>188</v>
@@ -6576,13 +6556,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6607,14 +6587,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6683,7 +6663,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>172</v>
@@ -6786,7 +6766,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>174</v>
@@ -6891,10 +6871,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6934,7 +6914,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6996,10 +6976,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7022,13 +7002,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7099,7 +7079,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7204,7 +7184,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>121</v>
@@ -7230,7 +7210,7 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>188</v>
@@ -7307,13 +7287,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7338,14 +7318,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7414,7 +7394,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7517,7 +7497,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7620,7 +7600,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
@@ -7651,14 +7631,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7727,7 +7707,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>172</v>
@@ -7830,7 +7810,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>174</v>
@@ -7933,7 +7913,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>174</v>
@@ -8038,7 +8018,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>180</v>
@@ -8141,7 +8121,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>182</v>
@@ -8246,7 +8226,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>184</v>
@@ -8351,7 +8331,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>187</v>
@@ -8456,7 +8436,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>174</v>
@@ -8563,7 +8543,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>180</v>
@@ -8666,7 +8646,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>182</v>
@@ -8771,7 +8751,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>184</v>
@@ -8876,7 +8856,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>187</v>
@@ -8979,13 +8959,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9010,14 +8990,14 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9086,7 +9066,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>180</v>
@@ -9189,7 +9169,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>182</v>
@@ -9294,7 +9274,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>184</v>
@@ -9337,7 +9317,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9399,7 +9379,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>187</v>
@@ -9425,13 +9405,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9502,10 +9482,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9607,10 +9587,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9633,7 +9613,7 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>188</v>
@@ -9710,13 +9690,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9741,14 +9721,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9817,7 +9797,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>172</v>
@@ -9920,7 +9900,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>174</v>
@@ -10025,10 +10005,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10068,7 +10048,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10130,10 +10110,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10156,13 +10136,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10233,7 +10213,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -10276,7 +10256,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10338,7 +10318,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>121</v>
@@ -10364,7 +10344,7 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>188</v>
@@ -10441,13 +10421,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10472,14 +10452,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10548,7 +10528,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -10651,7 +10631,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -10754,7 +10734,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
@@ -10859,7 +10839,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>172</v>
@@ -10962,7 +10942,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>174</v>
@@ -11067,10 +11047,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11172,10 +11152,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11277,7 +11257,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
@@ -11384,7 +11364,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>172</v>
@@ -11487,7 +11467,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>174</v>
@@ -11592,10 +11572,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11697,10 +11677,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11756,11 +11736,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y97" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z97" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -11798,13 +11780,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11829,14 +11811,14 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11905,7 +11887,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>172</v>
@@ -12008,7 +11990,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>174</v>
@@ -12113,10 +12095,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12156,7 +12138,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12218,10 +12200,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12244,13 +12226,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12321,7 +12303,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12364,7 +12346,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12426,7 +12408,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>121</v>
@@ -12452,7 +12434,7 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>188</v>
@@ -12529,13 +12511,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12560,14 +12542,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12636,7 +12618,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -12739,7 +12721,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -12750,7 +12732,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -12842,13 +12824,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -12873,14 +12855,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -12949,7 +12931,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>172</v>
@@ -13052,7 +13034,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>174</v>
@@ -13157,10 +13139,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13200,7 +13182,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13262,10 +13244,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13291,10 +13273,10 @@
         <v>122</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13365,13 +13347,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13396,16 +13378,16 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13474,7 +13456,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>172</v>
@@ -13577,7 +13559,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>174</v>
@@ -13682,10 +13664,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13725,7 +13707,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13787,10 +13769,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13813,16 +13795,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -13892,7 +13874,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13935,7 +13917,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13997,7 +13979,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>121</v>
@@ -14023,7 +14005,7 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>188</v>
@@ -14100,13 +14082,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14131,14 +14113,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14207,7 +14189,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>105</v>
@@ -14310,7 +14292,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>107</v>
@@ -14413,13 +14395,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14444,14 +14426,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14520,7 +14502,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>172</v>
@@ -14623,7 +14605,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>174</v>
@@ -14728,10 +14710,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14771,7 +14753,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -14833,10 +14815,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14859,13 +14841,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -14936,13 +14918,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -14967,14 +14949,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15043,7 +15025,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>172</v>
@@ -15146,7 +15128,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>174</v>
@@ -15251,10 +15233,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15294,7 +15276,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15356,10 +15338,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15382,13 +15364,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15459,13 +15441,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15490,14 +15472,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15566,7 +15548,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>172</v>
@@ -15669,7 +15651,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>174</v>
@@ -15774,10 +15756,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15817,7 +15799,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -15879,10 +15861,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15908,10 +15890,10 @@
         <v>87</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -15982,13 +15964,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16013,14 +15995,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16089,7 +16071,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>172</v>
@@ -16192,7 +16174,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>174</v>
@@ -16297,10 +16279,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16340,7 +16322,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16402,10 +16384,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16431,10 +16413,10 @@
         <v>87</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16505,13 +16487,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16536,14 +16518,14 @@
         <v>93</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16612,7 +16594,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>172</v>
@@ -16715,7 +16697,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>174</v>
@@ -16820,10 +16802,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16863,7 +16845,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -16925,10 +16907,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -16951,13 +16933,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17028,13 +17010,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17059,14 +17041,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17135,7 +17117,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>172</v>
@@ -17238,7 +17220,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>174</v>
@@ -17343,10 +17325,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17386,7 +17368,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17448,10 +17430,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17474,13 +17456,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L152" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="M152" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17551,13 +17533,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17582,16 +17564,16 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O153" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -17660,7 +17642,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>172</v>
@@ -17763,7 +17745,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>174</v>
@@ -17868,10 +17850,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -17911,7 +17893,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -17973,10 +17955,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -17999,16 +17981,16 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18078,7 +18060,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>113</v>
@@ -18121,7 +18103,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>77</v>
@@ -18183,7 +18165,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>121</v>
@@ -18209,7 +18191,7 @@
         <v>77</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>188</v>
@@ -18286,13 +18268,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>77</v>
@@ -18317,14 +18299,14 @@
         <v>93</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>77</v>
@@ -18393,7 +18375,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>105</v>
@@ -18496,7 +18478,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>107</v>
@@ -18601,7 +18583,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>113</v>
@@ -18644,7 +18626,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -18706,7 +18688,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>121</v>
@@ -18732,13 +18714,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -18940,7 +18922,7 @@
         <v>77</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L166" t="s" s="2">
         <v>188</v>
